--- a/INPUT/excel/input.xlsx
+++ b/INPUT/excel/input.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="methodID"/>
+    <sheet r:id="rId1" sheetId="1" name="methodID2"/>
     <sheet r:id="rId2" sheetId="2" name="Sheet2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+  <si>
+    <t>instructionID2</t>
+  </si>
   <si>
     <t>sample001</t>
   </si>
@@ -23,13 +26,19 @@
     <t>condition001</t>
   </si>
   <si>
+    <t>sample002</t>
+  </si>
+  <si>
+    <t>condition002</t>
+  </si>
+  <si>
     <t>result001</t>
   </si>
   <si>
     <t>resultsID</t>
   </si>
   <si>
-    <t>日時</t>
+    <t>DATE</t>
   </si>
   <si>
     <t>name</t>
@@ -44,7 +53,13 @@
     <t>waitingtime</t>
   </si>
   <si>
-    <t>key002</t>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>scanningTime</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
   <si>
     <t>INSERTION</t>
@@ -59,6 +74,9 @@
     <t>lot 1-0002</t>
   </si>
   <si>
+    <t>'0.10</t>
+  </si>
+  <si>
     <t>waiting time 300</t>
   </si>
   <si>
@@ -71,6 +89,9 @@
     <t>2024/3/7 20:41</t>
   </si>
   <si>
+    <t>'0.12</t>
+  </si>
+  <si>
     <t>waiting time 310</t>
   </si>
   <si>
@@ -78,6 +99,9 @@
   </si>
   <si>
     <t>2024/3/15 11:30</t>
+  </si>
+  <si>
+    <t>'0.11</t>
   </si>
   <si>
     <t>waiting time 320</t>
@@ -210,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -230,6 +254,9 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -242,8 +269,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -562,271 +595,325 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="12">
         <v>0.06</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>19.4</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="13">
         <v>300</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7"/>
+      <c r="G3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="15">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5">
-      <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12">
         <v>0.06</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="12">
         <v>20.5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="13">
         <v>310</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="G4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="15">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12">
         <v>0.06</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>20.3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="13">
         <v>320</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="G5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5">
-      <c r="A6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12">
         <v>0.06</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <v>19.8</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="13">
         <v>330</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="G6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="15">
+        <v>14</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="22.5">
-      <c r="A7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12">
         <v>0.06</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="12">
         <v>19.5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="13">
         <v>340</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="G7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5">
-      <c r="A8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12">
         <v>0.06</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="13">
         <v>20</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>350</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="G8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="22.5">
-      <c r="A9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="A9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12">
         <v>0.06</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="12">
         <v>20.2</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="13">
         <v>360</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="G9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="15">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
